--- a/data/panelapp/uk/Mitochondrial disorders.xlsx
+++ b/data/panelapp/uk/Mitochondrial disorders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:F479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100811</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100823</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100826</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100828</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100831</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100834</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100836</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100839</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100841</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100844</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100846</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100849</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100851</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100854</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100856</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100858</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100861</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100864</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100866</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100869</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100871</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100873</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100876</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100878</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100881</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100884</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100886</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100889</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100891</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100894</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100896</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100899</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100901</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100904</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100907</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100909</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100911</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100914</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100916</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100919</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100922</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100924</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100927</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100929</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100932</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100934</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100937</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100939</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100942</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100944</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100947</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100949</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100952</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100955</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100957</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100960</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100962</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100965</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100967</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100969</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100972</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100974</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100977</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100979</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100983</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100986</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100988</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100990</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100993</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100995</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.100998</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101000</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101003</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101005</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101008</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101010</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101015</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101018</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101020</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101023</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101026</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101028</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101031</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101033</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101035</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101038</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101040</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101043</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101046</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101048</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101051</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101053</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101057</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101060</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101062</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101065</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101067</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101070</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101072</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101074</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101077</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101079</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101082</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101084</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101087</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101089</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101092</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101094</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101098</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101101</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101104</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101106</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101109</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101111</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101114</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101116</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101118</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101121</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101123</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101126</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101128</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101131</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101133</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101136</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101138</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101140</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101143</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101145</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101149</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101153</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101155</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101158</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101160</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101163</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101165</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101168</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101170</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101173</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101175</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101178</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101180</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101183</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101185</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101188</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101190</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101193</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101195</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101198</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101201</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101203</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101206</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101208</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101211</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101213</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101216</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5134,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101218</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4379,6 +5164,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101221</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4404,6 +5194,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101223</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4429,6 +5224,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101226</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4454,6 +5254,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101228</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4479,6 +5284,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101231</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4504,6 +5314,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101233</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4529,6 +5344,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101235</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4554,6 +5374,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101238</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4579,6 +5404,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101240</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4604,6 +5434,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101243</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4629,6 +5464,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101245</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4654,6 +5494,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101248</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4679,6 +5524,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101250</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4704,6 +5554,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101252</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4729,6 +5584,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101255</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4754,6 +5614,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101257</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4779,6 +5644,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101261</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4804,6 +5674,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101264</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4829,6 +5704,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101267</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4854,6 +5734,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101269</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4879,6 +5764,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101272</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4904,6 +5794,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101274</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4929,6 +5824,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101277</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4954,6 +5854,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101279</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4979,6 +5884,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101282</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5004,6 +5914,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101284</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5029,6 +5944,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101287</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5054,6 +5974,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101289</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5079,6 +6004,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101292</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5104,6 +6034,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101294</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5129,6 +6064,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101297</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5154,6 +6094,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101299</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5179,6 +6124,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101301</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5204,6 +6154,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101304</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5229,6 +6184,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101306</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5254,6 +6214,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101309</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5279,6 +6244,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101312</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5304,6 +6274,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101314</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5329,6 +6304,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101316</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5354,6 +6334,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101319</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5379,6 +6364,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101321</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5404,6 +6394,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101324</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5429,6 +6424,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101326</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5454,6 +6454,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101329</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5479,6 +6484,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101332</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5504,6 +6514,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101334</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5529,6 +6544,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101337</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5554,6 +6574,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101339</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5579,6 +6604,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101342</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5604,6 +6634,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101344</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5629,6 +6664,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101347</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5654,6 +6694,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101350</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5679,6 +6724,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101352</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5704,6 +6754,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101354</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5729,6 +6784,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101357</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5754,6 +6814,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101360</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5779,6 +6844,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101362</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5804,6 +6874,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101365</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5829,6 +6904,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101367</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5854,6 +6934,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101370</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5879,6 +6964,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101372</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5904,6 +6994,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101375</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5929,6 +7024,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101377</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5954,6 +7054,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101379</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5979,6 +7084,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101382</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6004,6 +7114,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101384</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6029,6 +7144,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101387</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6054,6 +7174,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101389</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6079,6 +7204,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101392</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6104,6 +7234,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101394</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6129,6 +7264,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101397</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6154,6 +7294,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101399</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6179,6 +7324,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101402</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6204,6 +7354,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101404</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6229,6 +7384,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101406</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6254,6 +7414,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101409</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6279,6 +7444,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101413</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6304,6 +7474,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101416</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6329,6 +7504,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101418</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6354,6 +7534,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101421</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6379,6 +7564,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101424</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6404,6 +7594,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101484</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6429,6 +7624,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101520</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6454,6 +7654,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101524</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6479,6 +7684,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101527</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6504,6 +7714,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101530</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6529,6 +7744,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101533</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6554,6 +7774,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101536</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6579,6 +7804,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101538</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6604,6 +7834,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101541</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6629,6 +7864,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101544</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6654,6 +7894,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101546</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6679,6 +7924,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101549</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6704,6 +7954,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101551</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6729,6 +7984,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101554</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6754,6 +8014,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101556</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6779,6 +8044,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101559</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6804,6 +8074,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101561</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -6829,6 +8104,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101564</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -6854,6 +8134,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101566</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6879,6 +8164,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101569</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -6904,6 +8194,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101572</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -6929,6 +8224,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101575</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -6954,6 +8254,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101577</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6979,6 +8284,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101580</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7004,6 +8314,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101583</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7029,6 +8344,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101585</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7054,6 +8374,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101588</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7079,6 +8404,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101590</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7104,6 +8434,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101593</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7129,6 +8464,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101595</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7154,6 +8494,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101598</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -7179,6 +8524,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101601</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -7204,6 +8554,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101604</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -7229,6 +8584,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101607</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -7254,6 +8614,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101609</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -7279,6 +8644,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101612</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7304,6 +8674,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101615</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7329,6 +8704,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101617</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -7354,6 +8734,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101620</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -7379,6 +8764,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101622</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -7404,6 +8794,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101625</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7429,6 +8824,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101627</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -7454,6 +8854,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101630</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -7479,6 +8884,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101632</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -7504,6 +8914,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101634</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7529,6 +8944,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101637</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -7554,6 +8974,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101639</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -7579,6 +9004,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101642</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7604,6 +9034,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101644</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7629,6 +9064,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101647</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7654,6 +9094,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101649</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -7679,6 +9124,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101652</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -7704,6 +9154,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101654</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -7729,6 +9184,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101657</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7754,6 +9214,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101659</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -7779,6 +9244,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101662</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -7804,6 +9274,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101664</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -7829,6 +9304,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101667</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -7854,6 +9334,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101669</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -7879,6 +9364,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101672</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -7904,6 +9394,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101674</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -7929,6 +9424,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101677</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -7954,6 +9454,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101679</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -7979,6 +9484,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101682</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -8004,6 +9514,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101684</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -8029,6 +9544,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101687</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -8054,6 +9574,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101689</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -8079,6 +9604,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101692</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -8104,6 +9634,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101695</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -8129,6 +9664,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101697</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -8154,6 +9694,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101700</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -8179,6 +9724,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101706</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -8204,6 +9754,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101709</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -8229,6 +9784,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101711</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -8254,6 +9814,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101714</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -8279,6 +9844,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101717</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -8304,6 +9874,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101719</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -8329,6 +9904,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101722</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -8354,6 +9934,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101724</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -8379,6 +9964,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101727</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -8386,12 +9976,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>AK2</t>
+          <t>ACAT2</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>adenylate kinase 2</t>
+          <t>acetyl-CoA acetyltransferase 2</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -8402,6 +9992,11 @@
       <c r="E319" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101729</t>
         </is>
       </c>
     </row>
@@ -8411,12 +10006,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ALAS2</t>
+          <t>AK2</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>5'-aminolevulinate synthase 2</t>
+          <t>adenylate kinase 2</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -8427,6 +10022,11 @@
       <c r="E320" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101732</t>
         </is>
       </c>
     </row>
@@ -8436,12 +10036,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>ALDH18A1</t>
+          <t>ALAS2</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>aldehyde dehydrogenase 18 family member A1</t>
+          <t>5'-aminolevulinate synthase 2</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -8452,6 +10052,11 @@
       <c r="E321" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101735</t>
         </is>
       </c>
     </row>
@@ -8461,12 +10066,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ALDH1B1</t>
+          <t>ALDH18A1</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>aldehyde dehydrogenase 1 family member B1</t>
+          <t>aldehyde dehydrogenase 18 family member A1</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -8477,6 +10082,11 @@
       <c r="E322" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101737</t>
         </is>
       </c>
     </row>
@@ -8486,12 +10096,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>APOO</t>
+          <t>ALDH1B1</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>apolipoprotein O</t>
+          <t>aldehyde dehydrogenase 1 family member B1</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -8502,6 +10112,11 @@
       <c r="E323" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101740</t>
         </is>
       </c>
     </row>
@@ -8511,12 +10126,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>ATAD3B</t>
+          <t>APOO</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>ATPase family, AAA domain containing 3B</t>
+          <t>apolipoprotein O</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -8527,6 +10142,11 @@
       <c r="E324" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101742</t>
         </is>
       </c>
     </row>
@@ -8536,12 +10156,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>ATP5B</t>
+          <t>ATAD3B</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>ATP synthase, H+ transporting, mitochondrial F1 complex, beta polypeptide</t>
+          <t>ATPase family, AAA domain containing 3B</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -8552,6 +10172,11 @@
       <c r="E325" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101744</t>
         </is>
       </c>
     </row>
@@ -8561,12 +10186,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>ATP5C1</t>
+          <t>ATP5B</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>ATP synthase, H+ transporting, mitochondrial F1 complex, gamma polypeptide 1</t>
+          <t>ATP synthase, H+ transporting, mitochondrial F1 complex, beta polypeptide</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -8577,6 +10202,11 @@
       <c r="E326" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101747</t>
         </is>
       </c>
     </row>
@@ -8586,12 +10216,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>ATP5E</t>
+          <t>ATP5C1</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>ATP synthase, H+ transporting, mitochondrial F1 complex, epsilon subunit</t>
+          <t>ATP synthase, H+ transporting, mitochondrial F1 complex, gamma polypeptide 1</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -8602,6 +10232,11 @@
       <c r="E327" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101750</t>
         </is>
       </c>
     </row>
@@ -8611,12 +10246,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>ATP5G1</t>
+          <t>ATP5E</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>ATP synthase, H+ transporting, mitochondrial Fo complex subunit C1 (subunit 9)</t>
+          <t>ATP synthase, H+ transporting, mitochondrial F1 complex, epsilon subunit</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -8627,6 +10262,11 @@
       <c r="E328" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101752</t>
         </is>
       </c>
     </row>
@@ -8636,12 +10276,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ATP5G2</t>
+          <t>ATP5G1</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>ATP synthase, H+ transporting, mitochondrial Fo complex subunit C2 (subunit 9)</t>
+          <t>ATP synthase, H+ transporting, mitochondrial Fo complex subunit C1 (subunit 9)</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -8652,6 +10292,11 @@
       <c r="E329" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101754</t>
         </is>
       </c>
     </row>
@@ -8661,12 +10306,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>ATP5G3</t>
+          <t>ATP5G2</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>ATP synthase, H+ transporting, mitochondrial Fo complex subunit C3 (subunit 9)</t>
+          <t>ATP synthase, H+ transporting, mitochondrial Fo complex subunit C2 (subunit 9)</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -8677,6 +10322,11 @@
       <c r="E330" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101757</t>
         </is>
       </c>
     </row>
@@ -8686,12 +10336,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>ATP5I</t>
+          <t>ATP5G3</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>ATP synthase, H+ transporting, mitochondrial Fo complex subunit E</t>
+          <t>ATP synthase, H+ transporting, mitochondrial Fo complex subunit C3 (subunit 9)</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -8702,6 +10352,11 @@
       <c r="E331" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101760</t>
         </is>
       </c>
     </row>
@@ -8711,12 +10366,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>ATP5J</t>
+          <t>ATP5I</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>ATP synthase, H+ transporting, mitochondrial Fo complex subunit F6</t>
+          <t>ATP synthase, H+ transporting, mitochondrial Fo complex subunit E</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -8727,6 +10382,11 @@
       <c r="E332" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101762</t>
         </is>
       </c>
     </row>
@@ -8736,12 +10396,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ATP5O</t>
+          <t>ATP5J</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>ATP synthase, H+ transporting, mitochondrial F1 complex, O subunit</t>
+          <t>ATP synthase, H+ transporting, mitochondrial Fo complex subunit F6</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -8752,6 +10412,11 @@
       <c r="E333" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101765</t>
         </is>
       </c>
     </row>
@@ -8761,12 +10426,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>BDH1</t>
+          <t>ATP5O</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>3-hydroxybutyrate dehydrogenase 1</t>
+          <t>ATP synthase, H+ transporting, mitochondrial F1 complex, O subunit</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -8777,6 +10442,11 @@
       <c r="E334" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101767</t>
         </is>
       </c>
     </row>
@@ -8786,12 +10456,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>BOLA1</t>
+          <t>BDH1</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>bolA family member 1</t>
+          <t>3-hydroxybutyrate dehydrogenase 1</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -8802,6 +10472,11 @@
       <c r="E335" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101770</t>
         </is>
       </c>
     </row>
@@ -8811,12 +10486,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>BOLA2</t>
+          <t>BOLA1</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>bolA family member 2</t>
+          <t>bolA family member 1</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -8827,6 +10502,11 @@
       <c r="E336" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101772</t>
         </is>
       </c>
     </row>
@@ -8836,12 +10516,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>C19orf12</t>
+          <t>BOLA2</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>chromosome 19 open reading frame 12</t>
+          <t>bolA family member 2</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -8852,6 +10532,11 @@
       <c r="E337" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101775</t>
         </is>
       </c>
     </row>
@@ -8861,12 +10546,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>CEP89</t>
+          <t>C19orf12</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>centrosomal protein 89</t>
+          <t>chromosome 19 open reading frame 12</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -8877,6 +10562,11 @@
       <c r="E338" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101777</t>
         </is>
       </c>
     </row>
@@ -8886,12 +10576,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>CHKB</t>
+          <t>CEP89</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>choline kinase beta</t>
+          <t>centrosomal protein 89</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -8902,6 +10592,11 @@
       <c r="E339" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101780</t>
         </is>
       </c>
     </row>
@@ -8911,12 +10606,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>CISD2</t>
+          <t>CHKB</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>CDGSH iron sulfur domain 2</t>
+          <t>choline kinase beta</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -8927,6 +10622,11 @@
       <c r="E340" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101782</t>
         </is>
       </c>
     </row>
@@ -8936,12 +10636,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>CLPX</t>
+          <t>CISD2</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>caseinolytic mitochondrial matrix peptidase chaperone subunit</t>
+          <t>CDGSH iron sulfur domain 2</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -8952,6 +10652,11 @@
       <c r="E341" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101785</t>
         </is>
       </c>
     </row>
@@ -8961,12 +10666,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>COA1</t>
+          <t>CLPX</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase assembly factor 1 homolog</t>
+          <t>caseinolytic mitochondrial matrix peptidase chaperone subunit</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -8977,6 +10682,11 @@
       <c r="E342" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101787</t>
         </is>
       </c>
     </row>
@@ -8986,12 +10696,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>COA5</t>
+          <t>COA1</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase assembly factor 5</t>
+          <t>cytochrome c oxidase assembly factor 1 homolog</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -9002,6 +10712,11 @@
       <c r="E343" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101790</t>
         </is>
       </c>
     </row>
@@ -9011,12 +10726,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>COASY</t>
+          <t>COA5</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Coenzyme A synthase</t>
+          <t>cytochrome c oxidase assembly factor 5</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -9027,6 +10742,11 @@
       <c r="E344" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101792</t>
         </is>
       </c>
     </row>
@@ -9036,12 +10756,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>COX4I1</t>
+          <t>COASY</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase subunit 4I1</t>
+          <t>Coenzyme A synthase</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -9052,6 +10772,11 @@
       <c r="E345" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101795</t>
         </is>
       </c>
     </row>
@@ -9061,12 +10786,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>COX4I2</t>
+          <t>COX4I1</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase subunit 4I2</t>
+          <t>cytochrome c oxidase subunit 4I1</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -9077,6 +10802,11 @@
       <c r="E346" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101797</t>
         </is>
       </c>
     </row>
@@ -9086,12 +10816,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>COX5A</t>
+          <t>COX4I2</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase subunit 5A</t>
+          <t>cytochrome c oxidase subunit 4I2</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -9102,6 +10832,11 @@
       <c r="E347" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101800</t>
         </is>
       </c>
     </row>
@@ -9111,12 +10846,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>COX5B</t>
+          <t>COX5A</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase subunit 5B</t>
+          <t>cytochrome c oxidase subunit 5A</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -9127,6 +10862,11 @@
       <c r="E348" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101802</t>
         </is>
       </c>
     </row>
@@ -9136,12 +10876,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>COX6C</t>
+          <t>COX5B</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase subunit 6C</t>
+          <t>cytochrome c oxidase subunit 5B</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -9152,6 +10892,11 @@
       <c r="E349" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101805</t>
         </is>
       </c>
     </row>
@@ -9161,12 +10906,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>COX7A1</t>
+          <t>COX6C</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase subunit 7A1</t>
+          <t>cytochrome c oxidase subunit 6C</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -9177,6 +10922,11 @@
       <c r="E350" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101807</t>
         </is>
       </c>
     </row>
@@ -9186,12 +10936,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>COX7A2</t>
+          <t>COX7A1</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase subunit 7A2</t>
+          <t>cytochrome c oxidase subunit 7A1</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -9202,6 +10952,11 @@
       <c r="E351" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101810</t>
         </is>
       </c>
     </row>
@@ -9211,12 +10966,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>COX7B2</t>
+          <t>COX7A2</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase subunit 7B2</t>
+          <t>cytochrome c oxidase subunit 7A2</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -9227,6 +10982,11 @@
       <c r="E352" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101812</t>
         </is>
       </c>
     </row>
@@ -9236,12 +10996,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>COX7C</t>
+          <t>COX7B2</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase subunit 7C</t>
+          <t>cytochrome c oxidase subunit 7B2</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -9252,6 +11012,11 @@
       <c r="E353" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101815</t>
         </is>
       </c>
     </row>
@@ -9261,12 +11026,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>COX8A</t>
+          <t>COX7C</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase subunit 8A</t>
+          <t>cytochrome c oxidase subunit 7C</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -9277,6 +11042,11 @@
       <c r="E354" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101820</t>
         </is>
       </c>
     </row>
@@ -9286,12 +11056,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>CPT1A</t>
+          <t>COX8A</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>carnitine palmitoyltransferase 1A</t>
+          <t>cytochrome c oxidase subunit 8A</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -9302,6 +11072,11 @@
       <c r="E355" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101823</t>
         </is>
       </c>
     </row>
@@ -9311,12 +11086,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>CPT2</t>
+          <t>CPT1A</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>carnitine palmitoyltransferase 2</t>
+          <t>carnitine palmitoyltransferase 1A</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -9327,6 +11102,11 @@
       <c r="E356" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101825</t>
         </is>
       </c>
     </row>
@@ -9336,12 +11116,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>CRAT</t>
+          <t>CPT2</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>carnitine O-acetyltransferase</t>
+          <t>carnitine palmitoyltransferase 2</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -9352,6 +11132,11 @@
       <c r="E357" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101828</t>
         </is>
       </c>
     </row>
@@ -9361,12 +11146,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>CTBP1</t>
+          <t>CRAT</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>C-terminal binding protein 1</t>
+          <t>carnitine O-acetyltransferase</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -9377,6 +11162,11 @@
       <c r="E358" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101830</t>
         </is>
       </c>
     </row>
@@ -9386,12 +11176,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>CYP24A1</t>
+          <t>CTBP1</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 24 subfamily A member 1</t>
+          <t>C-terminal binding protein 1</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -9402,6 +11192,11 @@
       <c r="E359" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101833</t>
         </is>
       </c>
     </row>
@@ -9411,12 +11206,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>D2HGDH</t>
+          <t>CYP24A1</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>D-2-hydroxyglutarate dehydrogenase</t>
+          <t>cytochrome P450 family 24 subfamily A member 1</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -9427,6 +11222,11 @@
       <c r="E360" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101835</t>
         </is>
       </c>
     </row>
@@ -9436,12 +11236,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>DARS</t>
+          <t>D2HGDH</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>aspartyl-tRNA synthetase</t>
+          <t>D-2-hydroxyglutarate dehydrogenase</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -9452,6 +11252,11 @@
       <c r="E361" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101838</t>
         </is>
       </c>
     </row>
@@ -9461,12 +11266,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>DHTKD1</t>
+          <t>DARS</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>dehydrogenase E1 and transketolase domain containing 1</t>
+          <t>aspartyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -9477,6 +11282,11 @@
       <c r="E362" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101841</t>
         </is>
       </c>
     </row>
@@ -9486,12 +11296,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>DIABLO</t>
+          <t>DHTKD1</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>diablo IAP-binding mitochondrial protein</t>
+          <t>dehydrogenase E1 and transketolase domain containing 1</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -9502,6 +11312,11 @@
       <c r="E363" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101843</t>
         </is>
       </c>
     </row>
@@ -9511,12 +11326,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>DIAPH1</t>
+          <t>DIABLO</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>diaphanous related formin 1</t>
+          <t>diablo IAP-binding mitochondrial protein</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -9527,6 +11342,11 @@
       <c r="E364" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101846</t>
         </is>
       </c>
     </row>
@@ -9536,12 +11356,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>DLST</t>
+          <t>DIAPH1</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>dihydrolipoamide S-succinyltransferase</t>
+          <t>diaphanous related formin 1</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -9552,6 +11372,11 @@
       <c r="E365" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101849</t>
         </is>
       </c>
     </row>
@@ -9561,12 +11386,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>DTD1</t>
+          <t>DLST</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>D-tyrosyl-tRNA deacylase 1</t>
+          <t>dihydrolipoamide S-succinyltransferase</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -9577,6 +11402,11 @@
       <c r="E366" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101851</t>
         </is>
       </c>
     </row>
@@ -9586,12 +11416,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>DYM</t>
+          <t>DTD1</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>dymeclin</t>
+          <t>D-tyrosyl-tRNA deacylase 1</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -9602,6 +11432,11 @@
       <c r="E367" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101854</t>
         </is>
       </c>
     </row>
@@ -9611,12 +11446,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>ECSIT</t>
+          <t>DYM</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>ECSIT signalling integrator</t>
+          <t>dymeclin</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -9627,6 +11462,11 @@
       <c r="E368" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101856</t>
         </is>
       </c>
     </row>
@@ -9636,12 +11476,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>ERCC6L2</t>
+          <t>ECSIT</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>ERCC excision repair 6 like 2</t>
+          <t>ECSIT signalling integrator</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -9652,6 +11492,11 @@
       <c r="E369" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101859</t>
         </is>
       </c>
     </row>
@@ -9661,12 +11506,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>ETFA</t>
+          <t>ERCC6L2</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>electron transfer flavoprotein alpha subunit</t>
+          <t>ERCC excision repair 6 like 2</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -9677,6 +11522,11 @@
       <c r="E370" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101861</t>
         </is>
       </c>
     </row>
@@ -9686,12 +11536,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>ETFB</t>
+          <t>ETFA</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>electron transfer flavoprotein beta subunit</t>
+          <t>electron transfer flavoprotein alpha subunit</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -9702,6 +11552,11 @@
       <c r="E371" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101864</t>
         </is>
       </c>
     </row>
@@ -9711,12 +11566,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>FA2H</t>
+          <t>ETFB</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>fatty acid 2-hydroxylase</t>
+          <t>electron transfer flavoprotein beta subunit</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -9727,6 +11582,11 @@
       <c r="E372" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101867</t>
         </is>
       </c>
     </row>
@@ -9736,12 +11596,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>FBP2</t>
+          <t>FA2H</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>fructose-bisphosphatase 2</t>
+          <t>fatty acid 2-hydroxylase</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -9752,6 +11612,11 @@
       <c r="E373" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101869</t>
         </is>
       </c>
     </row>
@@ -9761,12 +11626,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>FGF12</t>
+          <t>FBP2</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>fibroblast growth factor 12</t>
+          <t>fructose-bisphosphatase 2</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -9777,6 +11642,11 @@
       <c r="E374" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101872</t>
         </is>
       </c>
     </row>
@@ -9786,12 +11656,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>FXN</t>
+          <t>FGF12</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>frataxin</t>
+          <t>fibroblast growth factor 12</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -9802,6 +11672,11 @@
       <c r="E375" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101875</t>
         </is>
       </c>
     </row>
@@ -9811,12 +11686,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>GATM</t>
+          <t>FXN</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>glycine amidinotransferase</t>
+          <t>frataxin</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -9827,6 +11702,11 @@
       <c r="E376" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101877</t>
         </is>
       </c>
     </row>
@@ -9836,12 +11716,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>GLUD1</t>
+          <t>GATM</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>glutamate dehydrogenase 1</t>
+          <t>glycine amidinotransferase</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -9852,6 +11732,11 @@
       <c r="E377" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101879</t>
         </is>
       </c>
     </row>
@@ -9861,12 +11746,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>GUF1</t>
+          <t>GLUD1</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>GUF1 homolog, GTPase</t>
+          <t>glutamate dehydrogenase 1</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -9877,6 +11762,11 @@
       <c r="E378" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101882</t>
         </is>
       </c>
     </row>
@@ -9886,12 +11776,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>HADH</t>
+          <t>GUF1</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>hydroxyacyl-CoA dehydrogenase</t>
+          <t>GUF1 homolog, GTPase</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -9902,6 +11792,11 @@
       <c r="E379" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101884</t>
         </is>
       </c>
     </row>
@@ -9911,12 +11806,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>HADHA</t>
+          <t>HADH</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>hydroxyacyl-CoA dehydrogenase trifunctional multienzyme complex subunit alpha</t>
+          <t>hydroxyacyl-CoA dehydrogenase</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -9927,6 +11822,11 @@
       <c r="E380" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101887</t>
         </is>
       </c>
     </row>
@@ -9936,12 +11836,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>HADHB</t>
+          <t>HADHA</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>hydroxyacyl-CoA dehydrogenase trifunctional multienzyme complex subunit beta</t>
+          <t>hydroxyacyl-CoA dehydrogenase trifunctional multienzyme complex subunit alpha</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -9952,6 +11852,11 @@
       <c r="E381" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101889</t>
         </is>
       </c>
     </row>
@@ -9961,12 +11866,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>HMGCL</t>
+          <t>HADHB</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>3-hydroxymethyl-3-methylglutaryl-CoA lyase</t>
+          <t>hydroxyacyl-CoA dehydrogenase trifunctional multienzyme complex subunit beta</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -9977,6 +11882,11 @@
       <c r="E382" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101892</t>
         </is>
       </c>
     </row>
@@ -9986,12 +11896,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>HMGCS2</t>
+          <t>HMGCL</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>3-hydroxy-3-methylglutaryl-CoA synthase 2</t>
+          <t>3-hydroxymethyl-3-methylglutaryl-CoA lyase</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -10002,6 +11912,11 @@
       <c r="E383" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101894</t>
         </is>
       </c>
     </row>
@@ -10011,12 +11926,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>HSPA9</t>
+          <t>HMGCS2</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>heat shock protein family A (Hsp70) member 9</t>
+          <t>3-hydroxy-3-methylglutaryl-CoA synthase 2</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -10027,6 +11942,11 @@
       <c r="E384" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101897</t>
         </is>
       </c>
     </row>
@@ -10036,12 +11956,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>HSPE1</t>
+          <t>HSPA9</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>heat shock protein family E (Hsp10) member 1</t>
+          <t>heat shock protein family A (Hsp70) member 9</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -10052,6 +11972,11 @@
       <c r="E385" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101899</t>
         </is>
       </c>
     </row>
@@ -10061,12 +11986,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>HTT</t>
+          <t>HSPE1</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>huntingtin</t>
+          <t>heat shock protein family E (Hsp10) member 1</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -10077,6 +12002,11 @@
       <c r="E386" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101901</t>
         </is>
       </c>
     </row>
@@ -10086,12 +12016,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>IARS</t>
+          <t>HTT</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>isoleucyl-tRNA synthetase</t>
+          <t>huntingtin</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -10102,6 +12032,11 @@
       <c r="E387" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101904</t>
         </is>
       </c>
     </row>
@@ -10111,12 +12046,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>IER3IP1</t>
+          <t>IARS</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>immediate early response 3 interacting protein 1</t>
+          <t>isoleucyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -10127,6 +12062,11 @@
       <c r="E388" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101906</t>
         </is>
       </c>
     </row>
@@ -10136,12 +12076,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>KIF5A</t>
+          <t>IER3IP1</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>kinesin family member 5A</t>
+          <t>immediate early response 3 interacting protein 1</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -10152,6 +12092,11 @@
       <c r="E389" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101909</t>
         </is>
       </c>
     </row>
@@ -10161,12 +12106,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>L2HGDH</t>
+          <t>KIF5A</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>L-2-hydroxyglutarate dehydrogenase</t>
+          <t>kinesin family member 5A</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -10177,6 +12122,11 @@
       <c r="E390" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101912</t>
         </is>
       </c>
     </row>
@@ -10186,12 +12136,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>LACTB</t>
+          <t>L2HGDH</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>lactamase beta</t>
+          <t>L-2-hydroxyglutarate dehydrogenase</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -10202,6 +12152,11 @@
       <c r="E391" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101914</t>
         </is>
       </c>
     </row>
@@ -10211,12 +12166,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>LARS</t>
+          <t>LACTB</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>leucyl-tRNA synthetase</t>
+          <t>lactamase beta</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -10227,6 +12182,11 @@
       <c r="E392" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101917</t>
         </is>
       </c>
     </row>
@@ -10236,12 +12196,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>LETM1</t>
+          <t>LARS</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>leucine zipper and EF-hand containing transmembrane protein 1</t>
+          <t>leucyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -10252,6 +12212,11 @@
       <c r="E393" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101919</t>
         </is>
       </c>
     </row>
@@ -10261,12 +12226,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>LYRM4</t>
+          <t>LETM1</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>LYR motif containing 4</t>
+          <t>leucine zipper and EF-hand containing transmembrane protein 1</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -10277,6 +12242,11 @@
       <c r="E394" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101922</t>
         </is>
       </c>
     </row>
@@ -10286,12 +12256,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MICU2</t>
+          <t>LYRM4</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>mitochondrial calcium uptake 2</t>
+          <t>LYR motif containing 4</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -10302,6 +12272,11 @@
       <c r="E395" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101924</t>
         </is>
       </c>
     </row>
@@ -10311,12 +12286,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>MRPL12</t>
+          <t>MICU2</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>mitochondrial ribosomal protein L12</t>
+          <t>mitochondrial calcium uptake 2</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -10327,6 +12302,11 @@
       <c r="E396" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101927</t>
         </is>
       </c>
     </row>
@@ -10336,12 +12316,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>MRPL40</t>
+          <t>MRPL12</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>mitochondrial ribosomal protein L40</t>
+          <t>mitochondrial ribosomal protein L12</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -10352,6 +12332,11 @@
       <c r="E397" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101929</t>
         </is>
       </c>
     </row>
@@ -10361,12 +12346,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>MRPS23</t>
+          <t>MRPL40</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>mitochondrial ribosomal protein S23</t>
+          <t>mitochondrial ribosomal protein L40</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -10377,6 +12362,11 @@
       <c r="E398" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101932</t>
         </is>
       </c>
     </row>
@@ -10386,12 +12376,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>MRPS7</t>
+          <t>MRPS23</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>mitochondrial ribosomal protein S7</t>
+          <t>mitochondrial ribosomal protein S23</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -10402,6 +12392,11 @@
       <c r="E399" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101935</t>
         </is>
       </c>
     </row>
@@ -10411,12 +12406,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NDUFA13</t>
+          <t>MRPS7</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit A13</t>
+          <t>mitochondrial ribosomal protein S7</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -10427,6 +12422,11 @@
       <c r="E400" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101937</t>
         </is>
       </c>
     </row>
@@ -10436,12 +12436,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>NDUFA3</t>
+          <t>NDUFA13</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit A3</t>
+          <t>NADH:ubiquinone oxidoreductase subunit A13</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -10452,6 +12452,11 @@
       <c r="E401" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101940</t>
         </is>
       </c>
     </row>
@@ -10461,12 +12466,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NDUFA5</t>
+          <t>NDUFA3</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit A5</t>
+          <t>NADH:ubiquinone oxidoreductase subunit A3</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -10477,6 +12482,11 @@
       <c r="E402" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101944</t>
         </is>
       </c>
     </row>
@@ -10486,12 +12496,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NDUFA7</t>
+          <t>NDUFA5</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit A7</t>
+          <t>NADH:ubiquinone oxidoreductase subunit A5</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -10502,6 +12512,11 @@
       <c r="E403" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101947</t>
         </is>
       </c>
     </row>
@@ -10511,12 +12526,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NDUFA8</t>
+          <t>NDUFA7</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit A8</t>
+          <t>NADH:ubiquinone oxidoreductase subunit A7</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -10527,6 +12542,11 @@
       <c r="E404" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101949</t>
         </is>
       </c>
     </row>
@@ -10536,12 +12556,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>NDUFAB1</t>
+          <t>NDUFA8</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit AB1</t>
+          <t>NADH:ubiquinone oxidoreductase subunit A8</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -10552,6 +12572,11 @@
       <c r="E405" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101952</t>
         </is>
       </c>
     </row>
@@ -10561,12 +12586,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NDUFB1</t>
+          <t>NDUFAB1</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit B1</t>
+          <t>NADH:ubiquinone oxidoreductase subunit AB1</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -10577,6 +12602,11 @@
       <c r="E406" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101954</t>
         </is>
       </c>
     </row>
@@ -10586,12 +12616,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NDUFB10</t>
+          <t>NDUFB1</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit B10</t>
+          <t>NADH:ubiquinone oxidoreductase subunit B1</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -10602,6 +12632,11 @@
       <c r="E407" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101957</t>
         </is>
       </c>
     </row>
@@ -10611,12 +12646,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>NDUFB2</t>
+          <t>NDUFB10</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit B2</t>
+          <t>NADH:ubiquinone oxidoreductase subunit B10</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -10627,6 +12662,11 @@
       <c r="E408" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101959</t>
         </is>
       </c>
     </row>
@@ -10636,12 +12676,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NDUFB4</t>
+          <t>NDUFB2</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit B4</t>
+          <t>NADH:ubiquinone oxidoreductase subunit B2</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -10652,6 +12692,11 @@
       <c r="E409" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101962</t>
         </is>
       </c>
     </row>
@@ -10661,12 +12706,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NDUFB5</t>
+          <t>NDUFB4</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit B5</t>
+          <t>NADH:ubiquinone oxidoreductase subunit B4</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -10677,6 +12722,11 @@
       <c r="E410" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101964</t>
         </is>
       </c>
     </row>
@@ -10686,12 +12736,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NDUFB6</t>
+          <t>NDUFB5</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit B6</t>
+          <t>NADH:ubiquinone oxidoreductase subunit B5</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -10702,6 +12752,11 @@
       <c r="E411" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101966</t>
         </is>
       </c>
     </row>
@@ -10711,12 +12766,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>NDUFC1</t>
+          <t>NDUFB6</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit C1</t>
+          <t>NADH:ubiquinone oxidoreductase subunit B6</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -10727,6 +12782,11 @@
       <c r="E412" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101969</t>
         </is>
       </c>
     </row>
@@ -10736,12 +12796,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NDUFC2</t>
+          <t>NDUFC1</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit C2</t>
+          <t>NADH:ubiquinone oxidoreductase subunit C1</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -10752,6 +12812,11 @@
       <c r="E413" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101971</t>
         </is>
       </c>
     </row>
@@ -10761,12 +12826,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NDUFS5</t>
+          <t>NDUFC2</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit S5</t>
+          <t>NADH:ubiquinone oxidoreductase subunit C2</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -10777,6 +12842,11 @@
       <c r="E414" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101974</t>
         </is>
       </c>
     </row>
@@ -10786,12 +12856,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NDUFV3</t>
+          <t>NDUFS5</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>NADH:ubiquinone oxidoreductase subunit V3</t>
+          <t>NADH:ubiquinone oxidoreductase subunit S5</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -10802,6 +12872,11 @@
       <c r="E415" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101976</t>
         </is>
       </c>
     </row>
@@ -10811,12 +12886,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NNT</t>
+          <t>NDUFV3</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>nicotinamide nucleotide transhydrogenase</t>
+          <t>NADH:ubiquinone oxidoreductase subunit V3</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -10827,6 +12902,11 @@
       <c r="E416" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101979</t>
         </is>
       </c>
     </row>
@@ -10836,12 +12916,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>OGDH</t>
+          <t>NNT</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>oxoglutarate dehydrogenase</t>
+          <t>nicotinamide nucleotide transhydrogenase</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -10852,6 +12932,11 @@
       <c r="E417" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101982</t>
         </is>
       </c>
     </row>
@@ -10861,12 +12946,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>OXA1L</t>
+          <t>OGDH</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>OXA1L, mitochondrial inner membrane protein</t>
+          <t>oxoglutarate dehydrogenase</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -10877,6 +12962,11 @@
       <c r="E418" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101984</t>
         </is>
       </c>
     </row>
@@ -10886,12 +12976,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>OXCT1</t>
+          <t>OXA1L</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>3-oxoacid CoA-transferase 1</t>
+          <t>OXA1L, mitochondrial inner membrane protein</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -10902,6 +12992,11 @@
       <c r="E419" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101986</t>
         </is>
       </c>
     </row>
@@ -10911,12 +13006,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>PAM16</t>
+          <t>OXCT1</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>presequence translocase associated motor 16</t>
+          <t>3-oxoacid CoA-transferase 1</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -10927,6 +13022,11 @@
       <c r="E420" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101989</t>
         </is>
       </c>
     </row>
@@ -10936,12 +13036,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>PANK2</t>
+          <t>PAM16</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>pantothenate kinase 2</t>
+          <t>presequence translocase associated motor 16</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -10952,6 +13052,11 @@
       <c r="E421" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101992</t>
         </is>
       </c>
     </row>
@@ -10961,12 +13066,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>PDE12</t>
+          <t>PANK2</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>phosphodiesterase 12</t>
+          <t>pantothenate kinase 2</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -10977,6 +13082,11 @@
       <c r="E422" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101994</t>
         </is>
       </c>
     </row>
@@ -10986,12 +13096,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>PDK1</t>
+          <t>PDE12</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>pyruvate dehydrogenase kinase 1</t>
+          <t>phosphodiesterase 12</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -11002,6 +13112,11 @@
       <c r="E423" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.101997</t>
         </is>
       </c>
     </row>
@@ -11011,12 +13126,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>PDK2</t>
+          <t>PDK1</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>pyruvate dehydrogenase kinase 2</t>
+          <t>pyruvate dehydrogenase kinase 1</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -11027,6 +13142,11 @@
       <c r="E424" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102000</t>
         </is>
       </c>
     </row>
@@ -11036,12 +13156,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>PDK3</t>
+          <t>PDK2</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>pyruvate dehydrogenase kinase 3</t>
+          <t>pyruvate dehydrogenase kinase 2</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -11052,6 +13172,11 @@
       <c r="E425" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102003</t>
         </is>
       </c>
     </row>
@@ -11061,12 +13186,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>PDK4</t>
+          <t>PDK3</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>pyruvate dehydrogenase kinase 4</t>
+          <t>pyruvate dehydrogenase kinase 3</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -11077,6 +13202,11 @@
       <c r="E426" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102005</t>
         </is>
       </c>
     </row>
@@ -11086,12 +13216,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>PDP2</t>
+          <t>PDK4</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>pyruvate dehyrogenase phosphatase catalytic subunit 2</t>
+          <t>pyruvate dehydrogenase kinase 4</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -11102,6 +13232,11 @@
       <c r="E427" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102008</t>
         </is>
       </c>
     </row>
@@ -11111,12 +13246,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>PDPR</t>
+          <t>PDP2</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>pyruvate dehydrogenase phosphatase regulatory subunit</t>
+          <t>pyruvate dehyrogenase phosphatase catalytic subunit 2</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -11127,6 +13262,11 @@
       <c r="E428" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102010</t>
         </is>
       </c>
     </row>
@@ -11136,12 +13276,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>PET117</t>
+          <t>PDPR</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>PET117 homolog</t>
+          <t>pyruvate dehydrogenase phosphatase regulatory subunit</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -11152,6 +13292,11 @@
       <c r="E429" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102013</t>
         </is>
       </c>
     </row>
@@ -11161,12 +13306,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>PLA2G6</t>
+          <t>PET117</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>phospholipase A2 group VI</t>
+          <t>PET117 homolog</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -11177,6 +13322,11 @@
       <c r="E430" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102015</t>
         </is>
       </c>
     </row>
@@ -11186,12 +13336,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>PLA2G6</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>patatin like phospholipase domain containing 4</t>
+          <t>phospholipase A2 group VI</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -11202,6 +13352,11 @@
       <c r="E431" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102018</t>
         </is>
       </c>
     </row>
@@ -11211,12 +13366,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>POP1</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>POP1 homolog, ribonuclease P/MRP subunit</t>
+          <t>patatin like phospholipase domain containing 4</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -11227,6 +13382,11 @@
       <c r="E432" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102020</t>
         </is>
       </c>
     </row>
@@ -11236,12 +13396,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>PPOX</t>
+          <t>POP1</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>protoporphyrinogen oxidase</t>
+          <t>POP1 homolog, ribonuclease P/MRP subunit</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -11252,6 +13412,11 @@
       <c r="E433" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102023</t>
         </is>
       </c>
     </row>
@@ -11261,12 +13426,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>PTCD1</t>
+          <t>PPOX</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>pentatricopeptide repeat domain 1</t>
+          <t>protoporphyrinogen oxidase</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -11277,6 +13442,11 @@
       <c r="E434" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102025</t>
         </is>
       </c>
     </row>
@@ -11286,12 +13456,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>PTRH2</t>
+          <t>PTCD1</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>peptidyl-tRNA hydrolase 2</t>
+          <t>pentatricopeptide repeat domain 1</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -11302,6 +13472,11 @@
       <c r="E435" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102028</t>
         </is>
       </c>
     </row>
@@ -11311,12 +13486,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>PYCR1</t>
+          <t>PTRH2</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>pyrroline-5-carboxylate reductase 1</t>
+          <t>peptidyl-tRNA hydrolase 2</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -11327,6 +13502,11 @@
       <c r="E436" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102030</t>
         </is>
       </c>
     </row>
@@ -11336,12 +13516,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>ROBO3</t>
+          <t>PYCR1</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>roundabout guidance receptor 3</t>
+          <t>pyrroline-5-carboxylate reductase 1</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -11352,6 +13532,11 @@
       <c r="E437" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102033</t>
         </is>
       </c>
     </row>
@@ -11361,12 +13546,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>SAMHD1</t>
+          <t>ROBO3</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>SAM and HD domain containing deoxynucleoside triphosphate triphosphohydrolase 1</t>
+          <t>roundabout guidance receptor 3</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -11377,6 +13562,11 @@
       <c r="E438" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102035</t>
         </is>
       </c>
     </row>
@@ -11386,12 +13576,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>SDHAF2</t>
+          <t>SAMHD1</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>succinate dehydrogenase complex assembly factor 2</t>
+          <t>SAM and HD domain containing deoxynucleoside triphosphate triphosphohydrolase 1</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -11402,6 +13592,11 @@
       <c r="E439" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102038</t>
         </is>
       </c>
     </row>
@@ -11411,12 +13606,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>SDHC</t>
+          <t>SDHAF2</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>succinate dehydrogenase complex subunit C</t>
+          <t>succinate dehydrogenase complex assembly factor 2</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -11427,6 +13622,11 @@
       <c r="E440" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102040</t>
         </is>
       </c>
     </row>
@@ -11436,12 +13636,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>SECISBP2</t>
+          <t>SDHC</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>SECIS binding protein 2</t>
+          <t>succinate dehydrogenase complex subunit C</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -11452,6 +13652,11 @@
       <c r="E441" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102043</t>
         </is>
       </c>
     </row>
@@ -11461,12 +13666,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>SEPSECS</t>
+          <t>SECISBP2</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Sep (O-phosphoserine) tRNA:Sec (selenocysteine) tRNA synthase</t>
+          <t>SECIS binding protein 2</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -11477,6 +13682,11 @@
       <c r="E442" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102045</t>
         </is>
       </c>
     </row>
@@ -11486,12 +13696,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>SLC22A5</t>
+          <t>SEPSECS</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>solute carrier family 22 member 5</t>
+          <t>Sep (O-phosphoserine) tRNA:Sec (selenocysteine) tRNA synthase</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -11502,6 +13712,11 @@
       <c r="E443" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102048</t>
         </is>
       </c>
     </row>
@@ -11511,12 +13726,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>SLC25A10</t>
+          <t>SLC22A5</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 10</t>
+          <t>solute carrier family 22 member 5</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -11527,6 +13742,11 @@
       <c r="E444" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102050</t>
         </is>
       </c>
     </row>
@@ -11536,12 +13756,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>SLC25A13</t>
+          <t>SLC25A10</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 13</t>
+          <t>solute carrier family 25 member 10</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -11552,6 +13772,11 @@
       <c r="E445" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102053</t>
         </is>
       </c>
     </row>
@@ -11561,12 +13786,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>SLC25A20</t>
+          <t>SLC25A13</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 20</t>
+          <t>solute carrier family 25 member 13</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -11577,6 +13802,11 @@
       <c r="E446" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102055</t>
         </is>
       </c>
     </row>
@@ -11586,12 +13816,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>SLC25A22</t>
+          <t>SLC25A20</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 22</t>
+          <t>solute carrier family 25 member 20</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -11602,6 +13832,11 @@
       <c r="E447" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102058</t>
         </is>
       </c>
     </row>
@@ -11611,12 +13846,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>SLC25A24</t>
+          <t>SLC25A22</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 24</t>
+          <t>solute carrier family 25 member 22</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -11627,6 +13862,11 @@
       <c r="E448" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102060</t>
         </is>
       </c>
     </row>
@@ -11636,12 +13876,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>SLC25A40</t>
+          <t>SLC25A24</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 40</t>
+          <t>solute carrier family 25 member 24</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -11652,6 +13892,11 @@
       <c r="E449" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102063</t>
         </is>
       </c>
     </row>
@@ -11661,12 +13906,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>SLC33A1</t>
+          <t>SLC25A40</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>solute carrier family 33 member 1</t>
+          <t>solute carrier family 25 member 40</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -11677,6 +13922,11 @@
       <c r="E450" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102065</t>
         </is>
       </c>
     </row>
@@ -11686,12 +13936,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>SLC39A8</t>
+          <t>SLC33A1</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>solute carrier family 39 member 8</t>
+          <t>solute carrier family 33 member 1</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -11702,6 +13952,11 @@
       <c r="E451" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102068</t>
         </is>
       </c>
     </row>
@@ -11711,12 +13966,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>SLC44A1</t>
+          <t>SLC39A8</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>solute carrier family 44 member 1</t>
+          <t>solute carrier family 39 member 8</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -11727,6 +13982,11 @@
       <c r="E452" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102070</t>
         </is>
       </c>
     </row>
@@ -11736,12 +13996,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>SLC52A2</t>
+          <t>SLC44A1</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>solute carrier family 52 member 2</t>
+          <t>solute carrier family 44 member 1</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -11752,6 +14012,11 @@
       <c r="E453" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102073</t>
         </is>
       </c>
     </row>
@@ -11761,12 +14026,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>SLC52A3</t>
+          <t>SLC52A2</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>solute carrier family 52 member 3</t>
+          <t>solute carrier family 52 member 2</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -11777,6 +14042,11 @@
       <c r="E454" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102075</t>
         </is>
       </c>
     </row>
@@ -11786,12 +14056,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>SRRT</t>
+          <t>SLC52A3</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>serrate, RNA effector molecule</t>
+          <t>solute carrier family 52 member 3</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -11802,6 +14072,11 @@
       <c r="E455" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102078</t>
         </is>
       </c>
     </row>
@@ -11811,12 +14086,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>SSBP1</t>
+          <t>SRRT</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>single stranded DNA binding protein 1</t>
+          <t>serrate, RNA effector molecule</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -11827,6 +14102,11 @@
       <c r="E456" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102080</t>
         </is>
       </c>
     </row>
@@ -11836,12 +14116,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>STAT2</t>
+          <t>SSBP1</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>signal transducer and activator of transcription 2</t>
+          <t>single stranded DNA binding protein 1</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -11852,6 +14132,11 @@
       <c r="E457" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102083</t>
         </is>
       </c>
     </row>
@@ -11861,12 +14146,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>STXBP1</t>
+          <t>STAT2</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>syntaxin binding protein 1</t>
+          <t>signal transducer and activator of transcription 2</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -11877,6 +14162,11 @@
       <c r="E458" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102087</t>
         </is>
       </c>
     </row>
@@ -11886,12 +14176,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>SUCLG2</t>
+          <t>STXBP1</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>succinate-CoA ligase GDP-forming beta subunit</t>
+          <t>syntaxin binding protein 1</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -11902,6 +14192,11 @@
       <c r="E459" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102089</t>
         </is>
       </c>
     </row>
@@ -11911,12 +14206,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TANGO2</t>
+          <t>SUCLG2</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>transport and golgi organization 2 homolog</t>
+          <t>succinate-CoA ligase GDP-forming beta subunit</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -11927,6 +14222,11 @@
       <c r="E460" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102092</t>
         </is>
       </c>
     </row>
@@ -11936,12 +14236,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>TIMM44</t>
+          <t>TANGO2</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>translocase of inner mitochondrial membrane 44</t>
+          <t>transport and golgi organization 2 homolog</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -11952,6 +14252,11 @@
       <c r="E461" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102095</t>
         </is>
       </c>
     </row>
@@ -11961,12 +14266,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>TMEM126A</t>
+          <t>TIMM44</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>transmembrane protein 126A</t>
+          <t>translocase of inner mitochondrial membrane 44</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -11977,6 +14282,11 @@
       <c r="E462" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102097</t>
         </is>
       </c>
     </row>
@@ -11986,12 +14296,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>TRAK1</t>
+          <t>TMEM126A</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>trafficking kinesin protein 1</t>
+          <t>transmembrane protein 126A</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -12002,6 +14312,11 @@
       <c r="E463" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102100</t>
         </is>
       </c>
     </row>
@@ -12011,12 +14326,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>TRAP1</t>
+          <t>TRAK1</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>TNF receptor associated protein 1</t>
+          <t>trafficking kinesin protein 1</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -12027,6 +14342,11 @@
       <c r="E464" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102103</t>
         </is>
       </c>
     </row>
@@ -12036,12 +14356,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>TXN2</t>
+          <t>TRAP1</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>thioredoxin 2</t>
+          <t>TNF receptor associated protein 1</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -12052,6 +14372,11 @@
       <c r="E465" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102105</t>
         </is>
       </c>
     </row>
@@ -12061,12 +14386,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>UQCRC1</t>
+          <t>TXN2</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>ubiquinol-cytochrome c reductase core protein 1</t>
+          <t>thioredoxin 2</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -12077,6 +14402,11 @@
       <c r="E466" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102108</t>
         </is>
       </c>
     </row>
@@ -12086,12 +14416,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>UQCRFS1</t>
+          <t>UQCRC1</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>ubiquinol-cytochrome c reductase, Rieske iron-sulfur polypeptide 1</t>
+          <t>ubiquinol-cytochrome c reductase core protein 1</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -12102,6 +14432,11 @@
       <c r="E467" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102110</t>
         </is>
       </c>
     </row>
@@ -12111,12 +14446,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>UQCRH</t>
+          <t>UQCRFS1</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>ubiquinol-cytochrome c reductase hinge protein</t>
+          <t>ubiquinol-cytochrome c reductase, Rieske iron-sulfur polypeptide 1</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -12127,6 +14462,11 @@
       <c r="E468" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102113</t>
         </is>
       </c>
     </row>
@@ -12136,12 +14476,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>USMG5</t>
+          <t>UQCRH</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>up-regulated during skeletal muscle growth 5 homolog (mouse)</t>
+          <t>ubiquinol-cytochrome c reductase hinge protein</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -12152,6 +14492,11 @@
       <c r="E469" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102115</t>
         </is>
       </c>
     </row>
@@ -12161,12 +14506,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>VPS13C</t>
+          <t>USMG5</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>vacuolar protein sorting 13 homolog C</t>
+          <t>up-regulated during skeletal muscle growth 5 homolog (mouse)</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -12177,6 +14522,11 @@
       <c r="E470" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102118</t>
         </is>
       </c>
     </row>
@@ -12186,12 +14536,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>WFS1</t>
+          <t>VPS13C</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>wolframin ER transmembrane glycoprotein</t>
+          <t>vacuolar protein sorting 13 homolog C</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -12202,6 +14552,11 @@
       <c r="E471" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102120</t>
         </is>
       </c>
     </row>
@@ -12211,12 +14566,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>XRCC4</t>
+          <t>WFS1</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>X-ray repair cross complementing 4</t>
+          <t>wolframin ER transmembrane glycoprotein</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -12227,6 +14582,11 @@
       <c r="E472" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102123</t>
         </is>
       </c>
     </row>
@@ -12236,22 +14596,27 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>ACAT2</t>
+          <t>XRCC4</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>acetyl-CoA acetyltransferase 2</t>
+          <t>X-ray repair cross complementing 4</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102125</t>
         </is>
       </c>
     </row>
@@ -12279,6 +14644,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102128</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -12304,6 +14674,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102131</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -12329,6 +14704,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102133</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -12354,6 +14734,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102136</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -12379,6 +14764,11 @@
           <t>Mitochondrial disorders</t>
         </is>
       </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102138</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -12402,6 +14792,11 @@
       <c r="E479" t="inlineStr">
         <is>
           <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:58.102141</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/uk/Mitochondrial disorders.xlsx
+++ b/data/panelapp/uk/Mitochondrial disorders.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100811</t>
+          <t>2021-10-05 14:21:31.420843</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100823</t>
+          <t>2021-10-05 14:21:31.420853</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100826</t>
+          <t>2021-10-05 14:21:31.420856</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100828</t>
+          <t>2021-10-05 14:21:31.420859</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100831</t>
+          <t>2021-10-05 14:21:31.420862</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100834</t>
+          <t>2021-10-05 14:21:31.420864</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100836</t>
+          <t>2021-10-05 14:21:31.420867</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100839</t>
+          <t>2021-10-05 14:21:31.420870</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100841</t>
+          <t>2021-10-05 14:21:31.420872</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100844</t>
+          <t>2021-10-05 14:21:31.420875</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100846</t>
+          <t>2021-10-05 14:21:31.420877</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100849</t>
+          <t>2021-10-05 14:21:31.420880</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100851</t>
+          <t>2021-10-05 14:21:31.420883</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100854</t>
+          <t>2021-10-05 14:21:31.420885</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100856</t>
+          <t>2021-10-05 14:21:31.420888</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100858</t>
+          <t>2021-10-05 14:21:31.420890</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100861</t>
+          <t>2021-10-05 14:21:31.420893</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100864</t>
+          <t>2021-10-05 14:21:31.420896</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100866</t>
+          <t>2021-10-05 14:21:31.420899</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100869</t>
+          <t>2021-10-05 14:21:31.420901</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100871</t>
+          <t>2021-10-05 14:21:31.420904</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100873</t>
+          <t>2021-10-05 14:21:31.420906</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100876</t>
+          <t>2021-10-05 14:21:31.420909</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100878</t>
+          <t>2021-10-05 14:21:31.420912</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100881</t>
+          <t>2021-10-05 14:21:31.420914</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100884</t>
+          <t>2021-10-05 14:21:31.420917</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100886</t>
+          <t>2021-10-05 14:21:31.420920</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100889</t>
+          <t>2021-10-05 14:21:31.420922</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100891</t>
+          <t>2021-10-05 14:21:31.420925</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100894</t>
+          <t>2021-10-05 14:21:31.420928</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100896</t>
+          <t>2021-10-05 14:21:31.420930</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100899</t>
+          <t>2021-10-05 14:21:31.420933</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100901</t>
+          <t>2021-10-05 14:21:31.420936</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100904</t>
+          <t>2021-10-05 14:21:31.420939</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100907</t>
+          <t>2021-10-05 14:21:31.420941</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100909</t>
+          <t>2021-10-05 14:21:31.420944</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100911</t>
+          <t>2021-10-05 14:21:31.420947</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100914</t>
+          <t>2021-10-05 14:21:31.420949</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100916</t>
+          <t>2021-10-05 14:21:31.420952</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100919</t>
+          <t>2021-10-05 14:21:31.420955</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100922</t>
+          <t>2021-10-05 14:21:31.420957</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100924</t>
+          <t>2021-10-05 14:21:31.420960</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100927</t>
+          <t>2021-10-05 14:21:31.420963</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100929</t>
+          <t>2021-10-05 14:21:31.420966</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100932</t>
+          <t>2021-10-05 14:21:31.420968</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100934</t>
+          <t>2021-10-05 14:21:31.420971</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100937</t>
+          <t>2021-10-05 14:21:31.420973</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100939</t>
+          <t>2021-10-05 14:21:31.420976</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100942</t>
+          <t>2021-10-05 14:21:31.420978</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100944</t>
+          <t>2021-10-05 14:21:31.420981</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100947</t>
+          <t>2021-10-05 14:21:31.420984</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100949</t>
+          <t>2021-10-05 14:21:31.420986</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100952</t>
+          <t>2021-10-05 14:21:31.420989</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100955</t>
+          <t>2021-10-05 14:21:31.420992</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100957</t>
+          <t>2021-10-05 14:21:31.420995</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100960</t>
+          <t>2021-10-05 14:21:31.420997</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100962</t>
+          <t>2021-10-05 14:21:31.421000</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100965</t>
+          <t>2021-10-05 14:21:31.421003</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100967</t>
+          <t>2021-10-05 14:21:31.421005</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100969</t>
+          <t>2021-10-05 14:21:31.421008</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100972</t>
+          <t>2021-10-05 14:21:31.421010</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100974</t>
+          <t>2021-10-05 14:21:31.421013</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100977</t>
+          <t>2021-10-05 14:21:31.421016</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100979</t>
+          <t>2021-10-05 14:21:31.421018</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100983</t>
+          <t>2021-10-05 14:21:31.421022</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100986</t>
+          <t>2021-10-05 14:21:31.421025</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100988</t>
+          <t>2021-10-05 14:21:31.421028</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100990</t>
+          <t>2021-10-05 14:21:31.421030</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100993</t>
+          <t>2021-10-05 14:21:31.421034</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100995</t>
+          <t>2021-10-05 14:21:31.421037</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.100998</t>
+          <t>2021-10-05 14:21:31.421040</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101000</t>
+          <t>2021-10-05 14:21:31.421042</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101003</t>
+          <t>2021-10-05 14:21:31.421045</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101005</t>
+          <t>2021-10-05 14:21:31.421047</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101008</t>
+          <t>2021-10-05 14:21:31.421050</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101010</t>
+          <t>2021-10-05 14:21:31.421053</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101015</t>
+          <t>2021-10-05 14:21:31.421057</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101018</t>
+          <t>2021-10-05 14:21:31.421060</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101020</t>
+          <t>2021-10-05 14:21:31.421063</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101023</t>
+          <t>2021-10-05 14:21:31.421065</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101026</t>
+          <t>2021-10-05 14:21:31.421068</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101028</t>
+          <t>2021-10-05 14:21:31.421071</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101031</t>
+          <t>2021-10-05 14:21:31.421074</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101033</t>
+          <t>2021-10-05 14:21:31.421076</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101035</t>
+          <t>2021-10-05 14:21:31.421078</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101038</t>
+          <t>2021-10-05 14:21:31.421081</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101040</t>
+          <t>2021-10-05 14:21:31.421084</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101043</t>
+          <t>2021-10-05 14:21:31.421086</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101046</t>
+          <t>2021-10-05 14:21:31.421089</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101048</t>
+          <t>2021-10-05 14:21:31.421091</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101051</t>
+          <t>2021-10-05 14:21:31.421094</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101053</t>
+          <t>2021-10-05 14:21:31.421097</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101057</t>
+          <t>2021-10-05 14:21:31.421101</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101060</t>
+          <t>2021-10-05 14:21:31.421103</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101062</t>
+          <t>2021-10-05 14:21:31.421106</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101065</t>
+          <t>2021-10-05 14:21:31.421109</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101067</t>
+          <t>2021-10-05 14:21:31.421111</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101070</t>
+          <t>2021-10-05 14:21:31.421114</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101072</t>
+          <t>2021-10-05 14:21:31.421116</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101074</t>
+          <t>2021-10-05 14:21:31.421119</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101077</t>
+          <t>2021-10-05 14:21:31.421121</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101079</t>
+          <t>2021-10-05 14:21:31.421124</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101082</t>
+          <t>2021-10-05 14:21:31.421126</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101084</t>
+          <t>2021-10-05 14:21:31.421129</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101087</t>
+          <t>2021-10-05 14:21:31.421132</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101089</t>
+          <t>2021-10-05 14:21:31.421134</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101092</t>
+          <t>2021-10-05 14:21:31.421137</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101094</t>
+          <t>2021-10-05 14:21:31.421139</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101098</t>
+          <t>2021-10-05 14:21:31.421144</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101101</t>
+          <t>2021-10-05 14:21:31.421147</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101104</t>
+          <t>2021-10-05 14:21:31.421150</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101106</t>
+          <t>2021-10-05 14:21:31.421152</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101109</t>
+          <t>2021-10-05 14:21:31.421155</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101111</t>
+          <t>2021-10-05 14:21:31.421157</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101114</t>
+          <t>2021-10-05 14:21:31.421160</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101116</t>
+          <t>2021-10-05 14:21:31.421162</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101118</t>
+          <t>2021-10-05 14:21:31.421165</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101121</t>
+          <t>2021-10-05 14:21:31.421167</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101123</t>
+          <t>2021-10-05 14:21:31.421170</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101126</t>
+          <t>2021-10-05 14:21:31.421173</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101128</t>
+          <t>2021-10-05 14:21:31.421175</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101131</t>
+          <t>2021-10-05 14:21:31.421178</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101133</t>
+          <t>2021-10-05 14:21:31.421180</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101136</t>
+          <t>2021-10-05 14:21:31.421183</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101138</t>
+          <t>2021-10-05 14:21:31.421185</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101140</t>
+          <t>2021-10-05 14:21:31.421188</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101143</t>
+          <t>2021-10-05 14:21:31.421190</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101145</t>
+          <t>2021-10-05 14:21:31.421192</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101149</t>
+          <t>2021-10-05 14:21:31.421197</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101153</t>
+          <t>2021-10-05 14:21:31.421200</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101155</t>
+          <t>2021-10-05 14:21:31.421202</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101158</t>
+          <t>2021-10-05 14:21:31.421205</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101160</t>
+          <t>2021-10-05 14:21:31.421207</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101163</t>
+          <t>2021-10-05 14:21:31.421210</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101165</t>
+          <t>2021-10-05 14:21:31.421212</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101168</t>
+          <t>2021-10-05 14:21:31.421215</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101170</t>
+          <t>2021-10-05 14:21:31.421217</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101173</t>
+          <t>2021-10-05 14:21:31.421220</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101175</t>
+          <t>2021-10-05 14:21:31.421222</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101178</t>
+          <t>2021-10-05 14:21:31.421225</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101180</t>
+          <t>2021-10-05 14:21:31.421227</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101183</t>
+          <t>2021-10-05 14:21:31.421230</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101185</t>
+          <t>2021-10-05 14:21:31.421232</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101188</t>
+          <t>2021-10-05 14:21:31.421235</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101190</t>
+          <t>2021-10-05 14:21:31.421237</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101193</t>
+          <t>2021-10-05 14:21:31.421240</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101195</t>
+          <t>2021-10-05 14:21:31.421242</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101198</t>
+          <t>2021-10-05 14:21:31.421245</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101201</t>
+          <t>2021-10-05 14:21:31.421248</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101203</t>
+          <t>2021-10-05 14:21:31.421251</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101206</t>
+          <t>2021-10-05 14:21:31.421253</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101208</t>
+          <t>2021-10-05 14:21:31.421256</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101211</t>
+          <t>2021-10-05 14:21:31.421258</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101213</t>
+          <t>2021-10-05 14:21:31.421261</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101216</t>
+          <t>2021-10-05 14:21:31.421263</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101218</t>
+          <t>2021-10-05 14:21:31.421266</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101221</t>
+          <t>2021-10-05 14:21:31.421268</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101223</t>
+          <t>2021-10-05 14:21:31.421271</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101226</t>
+          <t>2021-10-05 14:21:31.421274</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101228</t>
+          <t>2021-10-05 14:21:31.421276</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101231</t>
+          <t>2021-10-05 14:21:31.421279</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101233</t>
+          <t>2021-10-05 14:21:31.421281</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101235</t>
+          <t>2021-10-05 14:21:31.421284</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101238</t>
+          <t>2021-10-05 14:21:31.421286</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101240</t>
+          <t>2021-10-05 14:21:31.421289</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101243</t>
+          <t>2021-10-05 14:21:31.421291</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101245</t>
+          <t>2021-10-05 14:21:31.421294</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101248</t>
+          <t>2021-10-05 14:21:31.421296</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101250</t>
+          <t>2021-10-05 14:21:31.421299</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101252</t>
+          <t>2021-10-05 14:21:31.421301</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101255</t>
+          <t>2021-10-05 14:21:31.421303</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101257</t>
+          <t>2021-10-05 14:21:31.421306</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101261</t>
+          <t>2021-10-05 14:21:31.421310</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101264</t>
+          <t>2021-10-05 14:21:31.421313</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101267</t>
+          <t>2021-10-05 14:21:31.421316</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101269</t>
+          <t>2021-10-05 14:21:31.421319</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101272</t>
+          <t>2021-10-05 14:21:31.421321</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101274</t>
+          <t>2021-10-05 14:21:31.421324</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101277</t>
+          <t>2021-10-05 14:21:31.421327</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101279</t>
+          <t>2021-10-05 14:21:31.421329</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101282</t>
+          <t>2021-10-05 14:21:31.421331</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101284</t>
+          <t>2021-10-05 14:21:31.421334</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101287</t>
+          <t>2021-10-05 14:21:31.421337</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101289</t>
+          <t>2021-10-05 14:21:31.421339</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101292</t>
+          <t>2021-10-05 14:21:31.421342</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101294</t>
+          <t>2021-10-05 14:21:31.421344</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101297</t>
+          <t>2021-10-05 14:21:31.421347</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101299</t>
+          <t>2021-10-05 14:21:31.421349</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101301</t>
+          <t>2021-10-05 14:21:31.421352</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101304</t>
+          <t>2021-10-05 14:21:31.421354</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101306</t>
+          <t>2021-10-05 14:21:31.421357</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101309</t>
+          <t>2021-10-05 14:21:31.421360</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101312</t>
+          <t>2021-10-05 14:21:31.421362</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101314</t>
+          <t>2021-10-05 14:21:31.421365</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101316</t>
+          <t>2021-10-05 14:21:31.421367</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101319</t>
+          <t>2021-10-05 14:21:31.421370</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101321</t>
+          <t>2021-10-05 14:21:31.421372</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101324</t>
+          <t>2021-10-05 14:21:31.421375</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101326</t>
+          <t>2021-10-05 14:21:31.421378</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101329</t>
+          <t>2021-10-05 14:21:31.421380</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101332</t>
+          <t>2021-10-05 14:21:31.421383</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101334</t>
+          <t>2021-10-05 14:21:31.421386</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101337</t>
+          <t>2021-10-05 14:21:31.421388</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101339</t>
+          <t>2021-10-05 14:21:31.421391</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101342</t>
+          <t>2021-10-05 14:21:31.421393</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101344</t>
+          <t>2021-10-05 14:21:31.421396</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101347</t>
+          <t>2021-10-05 14:21:31.421399</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101350</t>
+          <t>2021-10-05 14:21:31.421401</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101352</t>
+          <t>2021-10-05 14:21:31.421404</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101354</t>
+          <t>2021-10-05 14:21:31.421406</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101357</t>
+          <t>2021-10-05 14:21:31.421409</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101360</t>
+          <t>2021-10-05 14:21:31.421411</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101362</t>
+          <t>2021-10-05 14:21:31.421414</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101365</t>
+          <t>2021-10-05 14:21:31.421417</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101367</t>
+          <t>2021-10-05 14:21:31.421419</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101370</t>
+          <t>2021-10-05 14:21:31.421422</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101372</t>
+          <t>2021-10-05 14:21:31.421424</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101375</t>
+          <t>2021-10-05 14:21:31.421427</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101377</t>
+          <t>2021-10-05 14:21:31.421430</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101379</t>
+          <t>2021-10-05 14:21:31.421432</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101382</t>
+          <t>2021-10-05 14:21:31.421435</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101384</t>
+          <t>2021-10-05 14:21:31.421438</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101387</t>
+          <t>2021-10-05 14:21:31.421440</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101389</t>
+          <t>2021-10-05 14:21:31.421443</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101392</t>
+          <t>2021-10-05 14:21:31.421445</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101394</t>
+          <t>2021-10-05 14:21:31.421448</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101397</t>
+          <t>2021-10-05 14:21:31.421450</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101399</t>
+          <t>2021-10-05 14:21:31.421453</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101402</t>
+          <t>2021-10-05 14:21:31.421455</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101404</t>
+          <t>2021-10-05 14:21:31.421458</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101406</t>
+          <t>2021-10-05 14:21:31.421461</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101409</t>
+          <t>2021-10-05 14:21:31.421463</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101413</t>
+          <t>2021-10-05 14:21:31.421468</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101416</t>
+          <t>2021-10-05 14:21:31.421470</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101418</t>
+          <t>2021-10-05 14:21:31.421473</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101421</t>
+          <t>2021-10-05 14:21:31.421475</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101424</t>
+          <t>2021-10-05 14:21:31.421478</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101484</t>
+          <t>2021-10-05 14:21:31.421480</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101520</t>
+          <t>2021-10-05 14:21:31.421483</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101524</t>
+          <t>2021-10-05 14:21:31.421485</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101527</t>
+          <t>2021-10-05 14:21:31.421488</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101530</t>
+          <t>2021-10-05 14:21:31.421490</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101533</t>
+          <t>2021-10-05 14:21:31.421493</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101536</t>
+          <t>2021-10-05 14:21:31.421495</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101538</t>
+          <t>2021-10-05 14:21:31.421498</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101541</t>
+          <t>2021-10-05 14:21:31.421501</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101544</t>
+          <t>2021-10-05 14:21:31.421503</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101546</t>
+          <t>2021-10-05 14:21:31.421506</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101549</t>
+          <t>2021-10-05 14:21:31.421509</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101551</t>
+          <t>2021-10-05 14:21:31.421511</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101554</t>
+          <t>2021-10-05 14:21:31.421514</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101556</t>
+          <t>2021-10-05 14:21:31.421516</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101559</t>
+          <t>2021-10-05 14:21:31.421519</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101561</t>
+          <t>2021-10-05 14:21:31.421522</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101564</t>
+          <t>2021-10-05 14:21:31.421524</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101566</t>
+          <t>2021-10-05 14:21:31.421527</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101569</t>
+          <t>2021-10-05 14:21:31.421530</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101572</t>
+          <t>2021-10-05 14:21:31.421532</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101575</t>
+          <t>2021-10-05 14:21:31.421535</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101577</t>
+          <t>2021-10-05 14:21:31.421537</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101580</t>
+          <t>2021-10-05 14:21:31.421540</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101583</t>
+          <t>2021-10-05 14:21:31.421543</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101585</t>
+          <t>2021-10-05 14:21:31.421545</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101588</t>
+          <t>2021-10-05 14:21:31.421548</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101590</t>
+          <t>2021-10-05 14:21:31.421550</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101593</t>
+          <t>2021-10-05 14:21:31.421553</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101595</t>
+          <t>2021-10-05 14:21:31.421555</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101598</t>
+          <t>2021-10-05 14:21:31.421558</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101601</t>
+          <t>2021-10-05 14:21:31.421560</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101604</t>
+          <t>2021-10-05 14:21:31.421563</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101607</t>
+          <t>2021-10-05 14:21:31.421565</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101609</t>
+          <t>2021-10-05 14:21:31.421568</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101612</t>
+          <t>2021-10-05 14:21:31.421571</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101615</t>
+          <t>2021-10-05 14:21:31.421573</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101617</t>
+          <t>2021-10-05 14:21:31.421576</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101620</t>
+          <t>2021-10-05 14:21:31.421578</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101622</t>
+          <t>2021-10-05 14:21:31.421581</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101625</t>
+          <t>2021-10-05 14:21:31.421583</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101627</t>
+          <t>2021-10-05 14:21:31.421586</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101630</t>
+          <t>2021-10-05 14:21:31.421589</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101632</t>
+          <t>2021-10-05 14:21:31.421591</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101634</t>
+          <t>2021-10-05 14:21:31.421594</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101637</t>
+          <t>2021-10-05 14:21:31.421596</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101639</t>
+          <t>2021-10-05 14:21:31.421599</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101642</t>
+          <t>2021-10-05 14:21:31.421602</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101644</t>
+          <t>2021-10-05 14:21:31.421604</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101647</t>
+          <t>2021-10-05 14:21:31.421607</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101649</t>
+          <t>2021-10-05 14:21:31.421610</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101652</t>
+          <t>2021-10-05 14:21:31.421612</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101654</t>
+          <t>2021-10-05 14:21:31.421615</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101657</t>
+          <t>2021-10-05 14:21:31.421617</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101659</t>
+          <t>2021-10-05 14:21:31.421620</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101662</t>
+          <t>2021-10-05 14:21:31.421622</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101664</t>
+          <t>2021-10-05 14:21:31.421625</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101667</t>
+          <t>2021-10-05 14:21:31.421628</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101669</t>
+          <t>2021-10-05 14:21:31.421630</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101672</t>
+          <t>2021-10-05 14:21:31.421633</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101674</t>
+          <t>2021-10-05 14:21:31.421636</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101677</t>
+          <t>2021-10-05 14:21:31.421638</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101679</t>
+          <t>2021-10-05 14:21:31.421640</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101682</t>
+          <t>2021-10-05 14:21:31.421643</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101684</t>
+          <t>2021-10-05 14:21:31.421645</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101687</t>
+          <t>2021-10-05 14:21:31.421648</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101689</t>
+          <t>2021-10-05 14:21:31.421651</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101692</t>
+          <t>2021-10-05 14:21:31.421653</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101695</t>
+          <t>2021-10-05 14:21:31.421656</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101697</t>
+          <t>2021-10-05 14:21:31.421658</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101700</t>
+          <t>2021-10-05 14:21:31.421661</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101706</t>
+          <t>2021-10-05 14:21:31.421664</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101709</t>
+          <t>2021-10-05 14:21:31.421668</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101711</t>
+          <t>2021-10-05 14:21:31.421670</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101714</t>
+          <t>2021-10-05 14:21:31.421673</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101717</t>
+          <t>2021-10-05 14:21:31.421675</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101719</t>
+          <t>2021-10-05 14:21:31.421678</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101722</t>
+          <t>2021-10-05 14:21:31.421681</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101724</t>
+          <t>2021-10-05 14:21:31.421683</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101727</t>
+          <t>2021-10-05 14:21:31.421686</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101729</t>
+          <t>2021-10-05 14:21:31.421688</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101732</t>
+          <t>2021-10-05 14:21:31.421691</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101735</t>
+          <t>2021-10-05 14:21:31.421694</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101737</t>
+          <t>2021-10-05 14:21:31.421696</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101740</t>
+          <t>2021-10-05 14:21:31.421699</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101742</t>
+          <t>2021-10-05 14:21:31.421701</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101744</t>
+          <t>2021-10-05 14:21:31.421704</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101747</t>
+          <t>2021-10-05 14:21:31.421706</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101750</t>
+          <t>2021-10-05 14:21:31.421709</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101752</t>
+          <t>2021-10-05 14:21:31.421712</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101754</t>
+          <t>2021-10-05 14:21:31.421714</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101757</t>
+          <t>2021-10-05 14:21:31.421716</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101760</t>
+          <t>2021-10-05 14:21:31.421719</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10387,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101762</t>
+          <t>2021-10-05 14:21:31.421721</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101765</t>
+          <t>2021-10-05 14:21:31.421724</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101767</t>
+          <t>2021-10-05 14:21:31.421727</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101770</t>
+          <t>2021-10-05 14:21:31.421729</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101772</t>
+          <t>2021-10-05 14:21:31.421732</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101775</t>
+          <t>2021-10-05 14:21:31.421735</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101777</t>
+          <t>2021-10-05 14:21:31.421737</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101780</t>
+          <t>2021-10-05 14:21:31.421740</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101782</t>
+          <t>2021-10-05 14:21:31.421742</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101785</t>
+          <t>2021-10-05 14:21:31.421745</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101787</t>
+          <t>2021-10-05 14:21:31.421748</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101790</t>
+          <t>2021-10-05 14:21:31.421750</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101792</t>
+          <t>2021-10-05 14:21:31.421753</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101795</t>
+          <t>2021-10-05 14:21:31.421755</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101797</t>
+          <t>2021-10-05 14:21:31.421758</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10837,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101800</t>
+          <t>2021-10-05 14:21:31.421760</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101802</t>
+          <t>2021-10-05 14:21:31.421763</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101805</t>
+          <t>2021-10-05 14:21:31.421765</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101807</t>
+          <t>2021-10-05 14:21:31.421768</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10957,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101810</t>
+          <t>2021-10-05 14:21:31.421771</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101812</t>
+          <t>2021-10-05 14:21:31.421773</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11017,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101815</t>
+          <t>2021-10-05 14:21:31.421776</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101820</t>
+          <t>2021-10-05 14:21:31.421780</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101823</t>
+          <t>2021-10-05 14:21:31.421783</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101825</t>
+          <t>2021-10-05 14:21:31.421785</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101828</t>
+          <t>2021-10-05 14:21:31.421788</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11167,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101830</t>
+          <t>2021-10-05 14:21:31.421790</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101833</t>
+          <t>2021-10-05 14:21:31.421793</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101835</t>
+          <t>2021-10-05 14:21:31.421795</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101838</t>
+          <t>2021-10-05 14:21:31.421798</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101841</t>
+          <t>2021-10-05 14:21:31.421800</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101843</t>
+          <t>2021-10-05 14:21:31.421803</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101846</t>
+          <t>2021-10-05 14:21:31.421806</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101849</t>
+          <t>2021-10-05 14:21:31.421808</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101851</t>
+          <t>2021-10-05 14:21:31.421811</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11437,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101854</t>
+          <t>2021-10-05 14:21:31.421813</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101856</t>
+          <t>2021-10-05 14:21:31.421816</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11497,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101859</t>
+          <t>2021-10-05 14:21:31.421819</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101861</t>
+          <t>2021-10-05 14:21:31.421821</t>
         </is>
       </c>
     </row>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101864</t>
+          <t>2021-10-05 14:21:31.421824</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11587,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101867</t>
+          <t>2021-10-05 14:21:31.421826</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11617,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101869</t>
+          <t>2021-10-05 14:21:31.421829</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11647,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101872</t>
+          <t>2021-10-05 14:21:31.421831</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11677,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101875</t>
+          <t>2021-10-05 14:21:31.421834</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11707,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101877</t>
+          <t>2021-10-05 14:21:31.421836</t>
         </is>
       </c>
     </row>
@@ -11736,7 +11737,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101879</t>
+          <t>2021-10-05 14:21:31.421839</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11767,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101882</t>
+          <t>2021-10-05 14:21:31.421841</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11797,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101884</t>
+          <t>2021-10-05 14:21:31.421844</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11827,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101887</t>
+          <t>2021-10-05 14:21:31.421846</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11857,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101889</t>
+          <t>2021-10-05 14:21:31.421849</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11887,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101892</t>
+          <t>2021-10-05 14:21:31.421851</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11917,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101894</t>
+          <t>2021-10-05 14:21:31.421854</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11947,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101897</t>
+          <t>2021-10-05 14:21:31.421856</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11977,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101899</t>
+          <t>2021-10-05 14:21:31.421859</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12007,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101901</t>
+          <t>2021-10-05 14:21:31.421861</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12037,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101904</t>
+          <t>2021-10-05 14:21:31.421864</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12067,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101906</t>
+          <t>2021-10-05 14:21:31.421866</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12097,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101909</t>
+          <t>2021-10-05 14:21:31.421869</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12127,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101912</t>
+          <t>2021-10-05 14:21:31.421871</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12157,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101914</t>
+          <t>2021-10-05 14:21:31.421874</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12187,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101917</t>
+          <t>2021-10-05 14:21:31.421876</t>
         </is>
       </c>
     </row>
@@ -12216,7 +12217,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101919</t>
+          <t>2021-10-05 14:21:31.421879</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12247,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101922</t>
+          <t>2021-10-05 14:21:31.421882</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12277,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101924</t>
+          <t>2021-10-05 14:21:31.421884</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12307,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101927</t>
+          <t>2021-10-05 14:21:31.421886</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12337,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101929</t>
+          <t>2021-10-05 14:21:31.421889</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12367,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101932</t>
+          <t>2021-10-05 14:21:31.421891</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12397,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101935</t>
+          <t>2021-10-05 14:21:31.421894</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12427,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101937</t>
+          <t>2021-10-05 14:21:31.421896</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12457,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101940</t>
+          <t>2021-10-05 14:21:31.421899</t>
         </is>
       </c>
     </row>
@@ -12486,7 +12487,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101944</t>
+          <t>2021-10-05 14:21:31.421902</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12517,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101947</t>
+          <t>2021-10-05 14:21:31.421905</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12547,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101949</t>
+          <t>2021-10-05 14:21:31.421908</t>
         </is>
       </c>
     </row>
@@ -12576,7 +12577,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101952</t>
+          <t>2021-10-05 14:21:31.421911</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12607,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101954</t>
+          <t>2021-10-05 14:21:31.421913</t>
         </is>
       </c>
     </row>
@@ -12636,7 +12637,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101957</t>
+          <t>2021-10-05 14:21:31.421916</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12667,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101959</t>
+          <t>2021-10-05 14:21:31.421918</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12697,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101962</t>
+          <t>2021-10-05 14:21:31.421920</t>
         </is>
       </c>
     </row>
@@ -12726,7 +12727,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101964</t>
+          <t>2021-10-05 14:21:31.421923</t>
         </is>
       </c>
     </row>
@@ -12756,7 +12757,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101966</t>
+          <t>2021-10-05 14:21:31.421925</t>
         </is>
       </c>
     </row>
@@ -12786,7 +12787,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101969</t>
+          <t>2021-10-05 14:21:31.421928</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12817,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101971</t>
+          <t>2021-10-05 14:21:31.421930</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12847,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101974</t>
+          <t>2021-10-05 14:21:31.421933</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12877,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101976</t>
+          <t>2021-10-05 14:21:31.421936</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12907,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101979</t>
+          <t>2021-10-05 14:21:31.421938</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12937,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101982</t>
+          <t>2021-10-05 14:21:31.421941</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12967,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101984</t>
+          <t>2021-10-05 14:21:31.421943</t>
         </is>
       </c>
     </row>
@@ -12996,7 +12997,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101986</t>
+          <t>2021-10-05 14:21:31.421946</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13027,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101989</t>
+          <t>2021-10-05 14:21:31.421948</t>
         </is>
       </c>
     </row>
@@ -13056,7 +13057,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101992</t>
+          <t>2021-10-05 14:21:31.421951</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13087,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101994</t>
+          <t>2021-10-05 14:21:31.421954</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13117,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.101997</t>
+          <t>2021-10-05 14:21:31.421956</t>
         </is>
       </c>
     </row>
@@ -13146,7 +13147,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102000</t>
+          <t>2021-10-05 14:21:31.421958</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13177,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102003</t>
+          <t>2021-10-05 14:21:31.421961</t>
         </is>
       </c>
     </row>
@@ -13206,7 +13207,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102005</t>
+          <t>2021-10-05 14:21:31.421964</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13237,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102008</t>
+          <t>2021-10-05 14:21:31.421966</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13267,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102010</t>
+          <t>2021-10-05 14:21:31.421969</t>
         </is>
       </c>
     </row>
@@ -13296,7 +13297,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102013</t>
+          <t>2021-10-05 14:21:31.421971</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13327,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102015</t>
+          <t>2021-10-05 14:21:31.421974</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13357,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102018</t>
+          <t>2021-10-05 14:21:31.421976</t>
         </is>
       </c>
     </row>
@@ -13386,7 +13387,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102020</t>
+          <t>2021-10-05 14:21:31.421979</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13417,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102023</t>
+          <t>2021-10-05 14:21:31.421981</t>
         </is>
       </c>
     </row>
@@ -13446,7 +13447,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102025</t>
+          <t>2021-10-05 14:21:31.421984</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13477,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102028</t>
+          <t>2021-10-05 14:21:31.421986</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13507,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102030</t>
+          <t>2021-10-05 14:21:31.421989</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13537,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102033</t>
+          <t>2021-10-05 14:21:31.421991</t>
         </is>
       </c>
     </row>
@@ -13566,7 +13567,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102035</t>
+          <t>2021-10-05 14:21:31.421994</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13597,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102038</t>
+          <t>2021-10-05 14:21:31.421996</t>
         </is>
       </c>
     </row>
@@ -13626,7 +13627,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102040</t>
+          <t>2021-10-05 14:21:31.421999</t>
         </is>
       </c>
     </row>
@@ -13656,7 +13657,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102043</t>
+          <t>2021-10-05 14:21:31.422001</t>
         </is>
       </c>
     </row>
@@ -13686,7 +13687,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102045</t>
+          <t>2021-10-05 14:21:31.422004</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13717,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102048</t>
+          <t>2021-10-05 14:21:31.422006</t>
         </is>
       </c>
     </row>
@@ -13746,7 +13747,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102050</t>
+          <t>2021-10-05 14:21:31.422009</t>
         </is>
       </c>
     </row>
@@ -13776,7 +13777,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102053</t>
+          <t>2021-10-05 14:21:31.422011</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13807,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102055</t>
+          <t>2021-10-05 14:21:31.422014</t>
         </is>
       </c>
     </row>
@@ -13836,7 +13837,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102058</t>
+          <t>2021-10-05 14:21:31.422016</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13867,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102060</t>
+          <t>2021-10-05 14:21:31.422019</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13897,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102063</t>
+          <t>2021-10-05 14:21:31.422021</t>
         </is>
       </c>
     </row>
@@ -13926,7 +13927,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102065</t>
+          <t>2021-10-05 14:21:31.422024</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13957,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102068</t>
+          <t>2021-10-05 14:21:31.422026</t>
         </is>
       </c>
     </row>
@@ -13986,7 +13987,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102070</t>
+          <t>2021-10-05 14:21:31.422029</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14017,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102073</t>
+          <t>2021-10-05 14:21:31.422031</t>
         </is>
       </c>
     </row>
@@ -14046,7 +14047,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102075</t>
+          <t>2021-10-05 14:21:31.422034</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14077,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102078</t>
+          <t>2021-10-05 14:21:31.422036</t>
         </is>
       </c>
     </row>
@@ -14106,7 +14107,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102080</t>
+          <t>2021-10-05 14:21:31.422039</t>
         </is>
       </c>
     </row>
@@ -14136,7 +14137,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102083</t>
+          <t>2021-10-05 14:21:31.422041</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14167,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102087</t>
+          <t>2021-10-05 14:21:31.422046</t>
         </is>
       </c>
     </row>
@@ -14196,7 +14197,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102089</t>
+          <t>2021-10-05 14:21:31.422049</t>
         </is>
       </c>
     </row>
@@ -14226,7 +14227,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102092</t>
+          <t>2021-10-05 14:21:31.422051</t>
         </is>
       </c>
     </row>
@@ -14256,7 +14257,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102095</t>
+          <t>2021-10-05 14:21:31.422054</t>
         </is>
       </c>
     </row>
@@ -14286,7 +14287,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102097</t>
+          <t>2021-10-05 14:21:31.422056</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14317,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102100</t>
+          <t>2021-10-05 14:21:31.422059</t>
         </is>
       </c>
     </row>
@@ -14346,7 +14347,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102103</t>
+          <t>2021-10-05 14:21:31.422062</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14377,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102105</t>
+          <t>2021-10-05 14:21:31.422064</t>
         </is>
       </c>
     </row>
@@ -14406,7 +14407,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102108</t>
+          <t>2021-10-05 14:21:31.422066</t>
         </is>
       </c>
     </row>
@@ -14436,7 +14437,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102110</t>
+          <t>2021-10-05 14:21:31.422069</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14467,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102113</t>
+          <t>2021-10-05 14:21:31.422072</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14497,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102115</t>
+          <t>2021-10-05 14:21:31.422074</t>
         </is>
       </c>
     </row>
@@ -14526,7 +14527,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102118</t>
+          <t>2021-10-05 14:21:31.422077</t>
         </is>
       </c>
     </row>
@@ -14556,7 +14557,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102120</t>
+          <t>2021-10-05 14:21:31.422079</t>
         </is>
       </c>
     </row>
@@ -14586,7 +14587,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102123</t>
+          <t>2021-10-05 14:21:31.422082</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14617,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102125</t>
+          <t>2021-10-05 14:21:31.422085</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14647,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102128</t>
+          <t>2021-10-05 14:21:31.422087</t>
         </is>
       </c>
     </row>
@@ -14676,7 +14677,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102131</t>
+          <t>2021-10-05 14:21:31.422090</t>
         </is>
       </c>
     </row>
@@ -14706,7 +14707,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102133</t>
+          <t>2021-10-05 14:21:31.422092</t>
         </is>
       </c>
     </row>
@@ -14736,7 +14737,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102136</t>
+          <t>2021-10-05 14:21:31.422095</t>
         </is>
       </c>
     </row>
@@ -14766,7 +14767,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102138</t>
+          <t>2021-10-05 14:21:31.422098</t>
         </is>
       </c>
     </row>
@@ -14796,7 +14797,91 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:58.102141</t>
+          <t>2021-10-05 14:21:31.422100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mitochondrial disorders</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>112</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-09-30T15:53:53.575623Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:21:31.417435</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/112/?format=json</t>
         </is>
       </c>
     </row>
